--- a/2年生後期制作/資料/パラメーター一覧.xlsx
+++ b/2年生後期制作/資料/パラメーター一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuji\OneDrive\デスクトップ\Git\13Yoshihara\2年生後期制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03AA97-7BD8-4A2E-908F-867BC65976AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC28288E-0052-4E5A-9835-5D2F7AB85B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
@@ -130,6 +130,10 @@
     <rPh sb="0" eb="2">
       <t>ジュウニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -236,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F036CEA-219C-4EE9-A587-758BF32CB116}" name="テーブル5" displayName="テーブル5" ref="A3:B11" totalsRowShown="0">
-  <autoFilter ref="A3:B11" xr:uid="{673C6285-1E43-4B58-8E41-4DACF7EA33BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F036CEA-219C-4EE9-A587-758BF32CB116}" name="テーブル5" displayName="テーブル5" ref="A3:B9" totalsRowShown="0">
+  <autoFilter ref="A3:B9" xr:uid="{673C6285-1E43-4B58-8E41-4DACF7EA33BA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F2C20372-72D2-4F92-93B8-B2F3C0FBFB31}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{6C1753BF-C7E2-463C-A3B6-EF7E7F427950}" name="数値"/>
@@ -247,21 +251,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46ACC128-F9F9-45A4-B085-344D575BCCCD}" name="テーブル55711" displayName="テーブル55711" ref="A36:B37" totalsRowShown="0">
-  <autoFilter ref="A36:B37" xr:uid="{1414886F-7999-43B1-B70A-90AB56A2D833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F52B54B0-CFCD-4C9D-BF9F-F8F61AB95E79}" name="テーブル556812" displayName="テーブル556812" ref="D23:E26" totalsRowShown="0">
+  <autoFilter ref="D23:E26" xr:uid="{695DA784-7404-40A1-94A3-332585BD8376}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{622E7D1B-BF68-42EB-9B7E-344CC5814B02}" name="パラメーター説明">
-      <calculatedColumnFormula>"【住人の移動速度は"&amp;テーブル55711[[#This Row],[数値]]&amp;"】"</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{D32EF3F9-5417-498C-A383-F2D725B5FEB0}" name="数値"/>
+    <tableColumn id="1" xr3:uid="{F4E9C055-CB14-45B4-BDD8-70902E41B7CA}" name="パラメーター説明"/>
+    <tableColumn id="2" xr3:uid="{C5FF3A55-E212-496B-87E1-5C88522BE571}" name="数値"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21B68543-8A3C-4538-AEFF-F2A928D9D525}" name="テーブル53" displayName="テーブル53" ref="D3:E10" totalsRowShown="0">
-  <autoFilter ref="D3:E10" xr:uid="{6D7FFF34-43BC-467C-948C-E7207956CF6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21B68543-8A3C-4538-AEFF-F2A928D9D525}" name="テーブル53" displayName="テーブル53" ref="D3:E8" totalsRowShown="0">
+  <autoFilter ref="D3:E8" xr:uid="{6D7FFF34-43BC-467C-948C-E7207956CF6C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F3F536B8-2193-478A-BED1-74815C514CF6}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{F59E20FA-6706-416E-BEE2-935A3D436EAA}" name="数値"/>
@@ -282,8 +284,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A15:B23" totalsRowShown="0">
-  <autoFilter ref="A15:B23" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A13:B20" totalsRowShown="0">
+  <autoFilter ref="A13:B20" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B5399DC8-B511-4317-AFCC-3B6D966FD767}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{04337E2F-0569-4AA2-BC9A-49AA71E4AC5D}" name="数値"/>
@@ -293,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A25571D3-D626-4DF0-B86B-A186F475D3B4}" name="テーブル556" displayName="テーブル556" ref="D15:E20" totalsRowShown="0">
-  <autoFilter ref="D15:E20" xr:uid="{0DB4E873-65EE-4182-9F18-D7DC9C2FDDEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A25571D3-D626-4DF0-B86B-A186F475D3B4}" name="テーブル556" displayName="テーブル556" ref="D13:E15" totalsRowShown="0">
+  <autoFilter ref="D13:E15" xr:uid="{0DB4E873-65EE-4182-9F18-D7DC9C2FDDEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{83654807-8EA3-49BF-B18E-AE46D0C240BA}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{E1C3C0B5-FDDF-4E3B-96F2-58DD241FBA3E}" name="数値"/>
@@ -304,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A26:B33" totalsRowShown="0">
-  <autoFilter ref="A26:B33" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A23:B27" totalsRowShown="0">
+  <autoFilter ref="A23:B27" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7B93FC99-F2CE-4359-A19F-596AC26CCFFC}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{EDA5B8FD-32AD-4016-9CF0-00603BEFA819}" name="数値"/>
@@ -315,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{965AD2E6-24D7-4D06-95C7-687866829DBD}" name="テーブル5568" displayName="テーブル5568" ref="D26:E31" totalsRowShown="0">
-  <autoFilter ref="D26:E31" xr:uid="{253D230C-C6FB-4D35-A4BD-E481F1A5C348}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{965AD2E6-24D7-4D06-95C7-687866829DBD}" name="テーブル5568" displayName="テーブル5568" ref="D18:E20" totalsRowShown="0">
+  <autoFilter ref="D18:E20" xr:uid="{253D230C-C6FB-4D35-A4BD-E481F1A5C348}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{94D8D3F0-3356-41D0-BF95-4F3DE4250E96}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{C72DA774-EA0D-4ED2-ADA5-30DEDFF01DDD}" name="数値"/>
@@ -326,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DDC758D-E3F0-4D91-884E-AAAC98F4BB23}" name="テーブル5569" displayName="テーブル5569" ref="G15:H17" totalsRowShown="0">
-  <autoFilter ref="G15:H17" xr:uid="{B57D04E3-B09B-43D3-8188-C85D4E0C9A8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DDC758D-E3F0-4D91-884E-AAAC98F4BB23}" name="テーブル5569" displayName="テーブル5569" ref="G13:H15" totalsRowShown="0">
+  <autoFilter ref="G13:H15" xr:uid="{B57D04E3-B09B-43D3-8188-C85D4E0C9A8D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2B39C74D-D098-45EF-BF4B-1714AC24991A}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{EE58E536-7F1B-4684-9C22-BE752C304692}" name="数値"/>
@@ -337,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4B3146E6-BFD9-4F08-8CD1-5D726AB5F10E}" name="テーブル556910" displayName="テーブル556910" ref="G26:H28" totalsRowShown="0">
-  <autoFilter ref="G26:H28" xr:uid="{18C0AC2F-AAE1-4382-A8D1-F8DE79CAAC40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4B3146E6-BFD9-4F08-8CD1-5D726AB5F10E}" name="テーブル556910" displayName="テーブル556910" ref="G18:H20" totalsRowShown="0">
+  <autoFilter ref="G18:H20" xr:uid="{18C0AC2F-AAE1-4382-A8D1-F8DE79CAAC40}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{897E1C33-B883-43CC-B4AA-474938EBD8EE}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{D95774B8-395D-4F8C-B833-4F95D8F3DFA5}" name="数値"/>
@@ -610,20 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D58BE54-B499-4ACB-B0B3-700F92E2497D}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="35.09765625" customWidth="1"/>
     <col min="2" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="44.796875" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
     <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="40.19921875" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -792,353 +794,251 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="str">
-        <f>"【敵の所持しているゴミの数は"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
-        <v>【敵の所持しているゴミの数は〇】</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="str">
-        <f>"【プレイヤーの所持しているゴミの数は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーの所持しているゴミの数は〇】</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <f>"【敵の所持しているゴールデンゴミの数は"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
-        <v>【敵の所持しているゴールデンゴミの数は〇】</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="str">
-        <f>"【プレイヤーの所持しているゴールデンゴミの数は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーの所持しているゴールデンゴミの数は〇】</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.2" thickBot="1">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="25.2" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" thickTop="1">
-      <c r="A15" t="s">
+    <row r="13" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="str">
+        <f>"【ゴミ収集車のMAXHPは"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車のMAXHPは〇】</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"【回収員のMAXHPは"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
+        <v>【回収員のMAXHPは〇】</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"【ゴミ袋の得点は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ袋の得点は〇】</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="str">
+        <f>"【ゴミ収集車の移動速度は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の移動速度は〇】</v>
+      </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"【回収員の移動速度は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
+        <v>【回収員の移動速度は〇】</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"【ゴミ袋の消滅時間は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ袋の消滅時間は〇】</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="str">
-        <f>"【ゴミ収集車のMAXHPは"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車のMAXHPは〇】</v>
+        <f>"【ゴミ収集車のノックバック速度は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車のノックバック速度は〇】</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <f>"【回収員のMAXHPは"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員のMAXHPは〇】</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
-        <f>"【ゴミ袋の得点は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ袋の得点は〇】</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.2" thickBot="1">
       <c r="A17" t="str">
-        <f>"【ゴミ収集車の移動速度は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の移動速度は〇】</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str">
-        <f>"【回収員の移動速度は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の移動速度は〇】</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="str">
-        <f>"【ゴミ袋の消滅時間は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ袋の消滅時間は〇】</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="str">
         <f>"【ゴミ収集車の出現までの時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の出現までの時間は〇】</v>
       </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A18" t="str">
+        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の撤収時間は〇】</v>
+      </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="str">
-        <f>"【回収員の出現までの時間は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の出現までの時間は〇】</v>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="str">
-        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の撤収時間は〇】</v>
+        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の回収範囲の半径は〇】</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f>"【回収員の所持しているゴミの数は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の所持しているゴミの数は〇】</v>
+        <f>"【回収員のMAXHPは"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
+        <v>【回収員のMAXHPは〇】</v>
       </c>
       <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"【ゴミ袋の得点は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ袋の得点は〇】</v>
+      </c>
+      <c r="H19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="str">
-        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の回収範囲の半径は〇】</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
-        <f>"【回収員の所持しているゴールデンゴミの数は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の所持しているゴールデンゴミの数は〇】</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="str">
         <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の回収員の召喚人数は〇】</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="str">
-        <f>"【ゴミ収集車の所持しているゴミの数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の所持しているゴミの数は〇】</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="str">
-        <f>"【ゴミ収集車の所持しているゴールデンゴミの数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の所持しているゴールデンゴミの数は〇】</v>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"【回収員の移動速度は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
+        <v>【回収員の移動速度は〇】</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"【ゴミ袋の消滅時間は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ袋の消滅時間は〇】</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.2" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.2" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.600000000000001" thickTop="1">
-      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>4</v>
       </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="str">
+        <f>"【ゴミ収集車の移動速度は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の移動速度は〇】</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f>"【住人の移動速度は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
+        <v>【住人の移動速度は〇】</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="str">
+        <f>"【ゴミ収集車のお仕置きまでの時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車のお仕置きまでの時間は〇】</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f>"【住人の最大ゴミ数は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
+        <v>【住人の最大ゴミ数は〇】</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="str">
+        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の撤収時間は〇】</v>
+      </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"【住人の投げる速度は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
+        <v>【住人の投げる速度は〇】</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="str">
-        <f>"【ゴミ収集車の移動速度は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の移動速度は〇】</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <f>"【回収員のMAXHPは"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員のMAXHPは〇】</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
-        <f>"【ゴミ袋の得点は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ袋の得点は〇】</v>
-      </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="str">
-        <f>"【ゴミ収集車の出現までの時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の出現までの時間は〇】</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <f>"【回収員の移動速度は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の移動速度は〇】</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="str">
-        <f>"【ゴミ袋の消滅時間は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ袋の消滅時間は〇】</v>
-      </c>
-      <c r="H28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="str">
-        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の撤収時間は〇】</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <f>"【回収員の出現までの時間は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の出現までの時間は〇】</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="str">
-        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の回収範囲の半径は〇】</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
-        <f>"【回収員の所持しているゴミの数は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の所持しているゴミの数は〇】</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="str">
         <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の回収員の召喚人数は〇】</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="str">
-        <f>"【回収員の所持しているゴールデンゴミの数は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
-        <v>【回収員の所持しているゴールデンゴミの数は〇】</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="str">
-        <f>"【ゴミ収集車の所持しているゴミの数は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の所持しているゴミの数は〇】</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="str">
-        <f>"【ゴミ収集車の所持しているゴールデンゴミの数は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の所持しているゴールデンゴミの数は〇】</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="25.2" thickBot="1">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="str">
-        <f>"【住人の移動速度は"&amp;テーブル55711[[#This Row],[数値]]&amp;"】"</f>
-        <v>【住人の移動速度は〇】</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>

--- a/2年生後期制作/資料/パラメーター一覧.xlsx
+++ b/2年生後期制作/資料/パラメーター一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuji\OneDrive\デスクトップ\Git\13Yoshihara\2年生後期制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC28288E-0052-4E5A-9835-5D2F7AB85B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42006FEB-1E10-42D5-916A-A4C83E8692EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10.0f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.0f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.375f * 5.0f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20.0f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10.0f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.0f</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -213,11 +237,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -226,7 +253,38 @@
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,22 +298,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F036CEA-219C-4EE9-A587-758BF32CB116}" name="テーブル5" displayName="テーブル5" ref="A3:B9" totalsRowShown="0">
-  <autoFilter ref="A3:B9" xr:uid="{673C6285-1E43-4B58-8E41-4DACF7EA33BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F036CEA-219C-4EE9-A587-758BF32CB116}" name="テーブル5" displayName="テーブル5" ref="A3:B8" totalsRowShown="0">
+  <autoFilter ref="A3:B8" xr:uid="{673C6285-1E43-4B58-8E41-4DACF7EA33BA}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F2C20372-72D2-4F92-93B8-B2F3C0FBFB31}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{6C1753BF-C7E2-463C-A3B6-EF7E7F427950}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{6C1753BF-C7E2-463C-A3B6-EF7E7F427950}" name="数値" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F52B54B0-CFCD-4C9D-BF9F-F8F61AB95E79}" name="テーブル556812" displayName="テーブル556812" ref="D23:E26" totalsRowShown="0">
-  <autoFilter ref="D23:E26" xr:uid="{695DA784-7404-40A1-94A3-332585BD8376}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F52B54B0-CFCD-4C9D-BF9F-F8F61AB95E79}" name="テーブル556812" displayName="テーブル556812" ref="D24:E27" totalsRowShown="0">
+  <autoFilter ref="D24:E27" xr:uid="{695DA784-7404-40A1-94A3-332585BD8376}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F4E9C055-CB14-45B4-BDD8-70902E41B7CA}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{C5FF3A55-E212-496B-87E1-5C88522BE571}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{C5FF3A55-E212-496B-87E1-5C88522BE571}" name="数値" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -266,7 +324,7 @@
   <autoFilter ref="D3:E8" xr:uid="{6D7FFF34-43BC-467C-948C-E7207956CF6C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F3F536B8-2193-478A-BED1-74815C514CF6}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{F59E20FA-6706-416E-BEE2-935A3D436EAA}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{F59E20FA-6706-416E-BEE2-935A3D436EAA}" name="数値" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -277,18 +335,18 @@
   <autoFilter ref="G3:H8" xr:uid="{D2A660C0-F477-4931-A041-6CC53749FAC9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{ABBCC08C-9013-45C9-95F4-C146C11C3285}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{D2AC3CA9-5FF1-4BF1-AC93-5460673D7DAF}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{D2AC3CA9-5FF1-4BF1-AC93-5460673D7DAF}" name="数値" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A13:B20" totalsRowShown="0">
-  <autoFilter ref="A13:B20" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A13:B21" totalsRowShown="0">
+  <autoFilter ref="A13:B21" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B5399DC8-B511-4317-AFCC-3B6D966FD767}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{04337E2F-0569-4AA2-BC9A-49AA71E4AC5D}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{04337E2F-0569-4AA2-BC9A-49AA71E4AC5D}" name="数値" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -299,18 +357,18 @@
   <autoFilter ref="D13:E15" xr:uid="{0DB4E873-65EE-4182-9F18-D7DC9C2FDDEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{83654807-8EA3-49BF-B18E-AE46D0C240BA}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{E1C3C0B5-FDDF-4E3B-96F2-58DD241FBA3E}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{E1C3C0B5-FDDF-4E3B-96F2-58DD241FBA3E}" name="数値" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A23:B27" totalsRowShown="0">
-  <autoFilter ref="A23:B27" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A24:B28" totalsRowShown="0">
+  <autoFilter ref="A24:B28" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7B93FC99-F2CE-4359-A19F-596AC26CCFFC}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{EDA5B8FD-32AD-4016-9CF0-00603BEFA819}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{EDA5B8FD-32AD-4016-9CF0-00603BEFA819}" name="数値" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -321,7 +379,7 @@
   <autoFilter ref="D18:E20" xr:uid="{253D230C-C6FB-4D35-A4BD-E481F1A5C348}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{94D8D3F0-3356-41D0-BF95-4F3DE4250E96}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{C72DA774-EA0D-4ED2-ADA5-30DEDFF01DDD}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{C72DA774-EA0D-4ED2-ADA5-30DEDFF01DDD}" name="数値" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -332,7 +390,7 @@
   <autoFilter ref="G13:H15" xr:uid="{B57D04E3-B09B-43D3-8188-C85D4E0C9A8D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2B39C74D-D098-45EF-BF4B-1714AC24991A}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{EE58E536-7F1B-4684-9C22-BE752C304692}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{EE58E536-7F1B-4684-9C22-BE752C304692}" name="数値" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -343,7 +401,7 @@
   <autoFilter ref="G18:H20" xr:uid="{18C0AC2F-AAE1-4382-A8D1-F8DE79CAAC40}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{897E1C33-B883-43CC-B4AA-474938EBD8EE}" name="パラメーター説明"/>
-    <tableColumn id="2" xr3:uid="{D95774B8-395D-4F8C-B833-4F95D8F3DFA5}" name="数値"/>
+    <tableColumn id="2" xr3:uid="{D95774B8-395D-4F8C-B833-4F95D8F3DFA5}" name="数値" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,20 +670,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D58BE54-B499-4ACB-B0B3-700F92E2497D}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="35.09765625" customWidth="1"/>
+    <col min="1" max="1" width="41.296875" customWidth="1"/>
     <col min="2" max="3" width="13.19921875" customWidth="1"/>
     <col min="4" max="4" width="28.796875" customWidth="1"/>
     <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,24 +732,24 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>"【プレイヤーのMAXHPは"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーのMAXHPは〇】</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>【プレイヤーのMAXHPは3】</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f>"【敵のMAXHPは"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
         <v>【敵のMAXHPは〇】</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="str">
         <f>"【車の移動速度は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車の移動速度は〇】</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
+        <v>【車の移動速度は0.375f * 5.0f】</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -699,22 +757,22 @@
         <f>"【プレイヤーの移動速度は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
         <v>【プレイヤーの移動速度は0.375f * 2.0f】</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="str">
         <f>"【敵の移動速度は"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
         <v>【敵の移動速度は〇】</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f>"【車の出現までの時間は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車の出現までの時間は〇】</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
+        <f>"【車のノックバック速度は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
+        <v>【車のノックバック速度は0.375f * 5.0f】</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -722,77 +780,68 @@
         <f>"【プレイヤーのジャンプ速度は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
         <v>【プレイヤーのジャンプ速度は1.5f】</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f>"【敵のジャンプ速度は"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
         <v>【敵のジャンプ速度は〇】</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f>"【車のノックバック速度は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車のノックバック速度は〇】</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
+        <f>"【車のゴミを落とすパワーは"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
+        <v>【車のゴミを落とすパワーは1】</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="str">
         <f>"【プレイヤーのノックバック速度は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーのノックバック速度は〇】</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+        <v>【プレイヤーのノックバック速度は0.375f * 2.0f】</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D7" t="str">
         <f>"【敵のノックバック速度は"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
         <v>【敵のノックバック速度は〇】</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <f>"【車のゴミを落とすパワーは"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車のゴミを落とすパワーは〇】</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
+        <f>"【車の出現までの時間は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
+        <v>【車の出現までの時間は10.0f】</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="str">
         <f>"【プレイヤーのゴミを落とすパワーは"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーのゴミを落とすパワーは〇】</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
+        <v>【プレイヤーのゴミを落とすパワーは1】</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
       </c>
       <c r="D8" t="str">
         <f>"【敵のゴミを落とすパワーは"&amp;テーブル53[[#This Row],[数値]]&amp;"】"</f>
         <v>【敵のゴミを落とすパワーは〇】</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="str">
         <f>"【車の消滅までの時間は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車の消滅までの時間は〇】</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="str">
-        <f>"【プレイヤーの得点倍率は"&amp;テーブル5[[#This Row],[数値]]&amp;"】"</f>
-        <v>【プレイヤーの得点倍率は〇】</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
+        <v>【車の消滅までの時間は2.0f】</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.2" thickBot="1">
@@ -829,65 +878,65 @@
     <row r="14" spans="1:8">
       <c r="A14" t="str">
         <f>"【ゴミ収集車のMAXHPは"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車のMAXHPは〇】</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
+        <v>【ゴミ収集車のMAXHPは5】</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
       </c>
       <c r="D14" t="str">
         <f>"【回収員のMAXHPは"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
         <v>【回収員のMAXHPは〇】</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="str">
         <f>"【ゴミ袋の得点は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ袋の得点は〇】</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="str">
         <f>"【ゴミ収集車の移動速度は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の移動速度は〇】</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
+        <v>【ゴミ収集車の移動速度は0.375f * 5.0f】</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="str">
         <f>"【回収員の移動速度は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
         <v>【回収員の移動速度は〇】</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
         <f>"【ゴミ袋の消滅時間は"&amp;テーブル5569[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ袋の消滅時間は〇】</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="str">
         <f>"【ゴミ収集車のノックバック速度は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車のノックバック速度は〇】</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>【ゴミ収集車のノックバック速度は0.375f * 5.0f】</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.2" thickBot="1">
       <c r="A17" t="str">
-        <f>"【ゴミ収集車の出現までの時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の出現までの時間は〇】</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
+        <f>"【ゴミ収集車のゴミを落とすパワーは"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車のゴミを落とすパワーは1】</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -898,11 +947,11 @@
     </row>
     <row r="18" spans="1:8" ht="18.600000000000001" thickTop="1">
       <c r="A18" t="str">
-        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の撤収時間は〇】</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
+        <f>"【ゴミ収集車の出現までの時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の出現までの時間は20.0f】</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -919,134 +968,148 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="str">
-        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の回収範囲の半径は〇】</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
+        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の撤収時間は10.0f】</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D19" t="str">
         <f>"【回収員のMAXHPは"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
         <v>【回収員のMAXHPは〇】</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="str">
         <f>"【ゴミ袋の得点は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ袋の得点は〇】</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="str">
-        <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の回収員の召喚人数は〇】</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
+        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の回収範囲の半径は5.0f】</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D20" t="str">
         <f>"【回収員の移動速度は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
         <v>【回収員の移動速度は〇】</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="str">
         <f>"【ゴミ袋の消滅時間は"&amp;テーブル556910[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ袋の消滅時間は〇】</v>
       </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.2" thickBot="1">
-      <c r="A22" s="2" t="s">
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="str">
+        <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の回収員の召喚人数は3】</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.2" thickBot="1">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.600000000000001" thickTop="1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="str">
+    <row r="25" spans="1:8">
+      <c r="A25" t="str">
         <f>"【ゴミ収集車の移動速度は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の移動速度は〇】</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
         <f>"【住人の移動速度は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
         <v>【住人の移動速度は〇】</v>
       </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="str">
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="str">
         <f>"【ゴミ収集車のお仕置きまでの時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車のお仕置きまでの時間は〇】</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
         <f>"【住人の最大ゴミ数は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
         <v>【住人の最大ゴミ数は〇】</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="str">
+    <row r="27" spans="1:8">
+      <c r="A27" t="str">
         <f>"【ゴミ収集車の撤収時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の撤収時間は〇】</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
         <f>"【住人の投げる速度は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
         <v>【住人の投げる速度は〇】</v>
       </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="str">
+      <c r="E27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="str">
         <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の回収員の召喚人数は〇】</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="10">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1056,6 +1119,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2年生後期制作/資料/パラメーター一覧.xlsx
+++ b/2年生後期制作/資料/パラメーター一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuji\OneDrive\デスクトップ\Git\13Yoshihara\2年生後期制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42006FEB-1E10-42D5-916A-A4C83E8692EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B244A-AF79-4EE9-A936-1A75472C7DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10.0f</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -342,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A13:B21" totalsRowShown="0">
-  <autoFilter ref="A13:B21" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B78AD3FC-D75A-40EB-B0AB-EC726F868564}" name="テーブル55" displayName="テーブル55" ref="A13:B22" totalsRowShown="0">
+  <autoFilter ref="A13:B22" xr:uid="{1550F3BD-BD77-4C6A-BDB1-2820FD3933ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B5399DC8-B511-4317-AFCC-3B6D966FD767}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{04337E2F-0569-4AA2-BC9A-49AA71E4AC5D}" name="数値" dataDxfId="6"/>
@@ -364,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A24:B28" totalsRowShown="0">
-  <autoFilter ref="A24:B28" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1D93ACB-F878-471F-A10C-6FA6ACB29F93}" name="テーブル557" displayName="テーブル557" ref="A25:B29" totalsRowShown="0">
+  <autoFilter ref="A25:B29" xr:uid="{76ED436A-C519-4CEB-81DD-6203BF1FD09F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7B93FC99-F2CE-4359-A19F-596AC26CCFFC}" name="パラメーター説明"/>
     <tableColumn id="2" xr3:uid="{EDA5B8FD-32AD-4016-9CF0-00603BEFA819}" name="数値" dataDxfId="4"/>
@@ -670,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D58BE54-B499-4ACB-B0B3-700F92E2497D}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -749,7 +745,7 @@
         <v>【車の移動速度は0.375f * 5.0f】</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -772,7 +768,7 @@
         <v>【車のノックバック速度は0.375f * 5.0f】</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -815,10 +811,10 @@
       </c>
       <c r="G7" t="str">
         <f>"【車の出現までの時間は"&amp;テーブル534[[#This Row],[数値]]&amp;"】"</f>
-        <v>【車の出現までの時間は10.0f】</v>
+        <v>【車の出現までの時間は5.0f】</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -841,7 +837,7 @@
         <v>【車の消滅までの時間は2.0f】</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.2" thickBot="1">
@@ -904,7 +900,7 @@
         <v>【ゴミ収集車の移動速度は0.375f * 5.0f】</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f>"【回収員の移動速度は"&amp;テーブル556[[#This Row],[数値]]&amp;"】"</f>
@@ -927,7 +923,7 @@
         <v>【ゴミ収集車のノックバック速度は0.375f * 5.0f】</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.2" thickBot="1">
@@ -951,7 +947,7 @@
         <v>【ゴミ収集車の出現までの時間は20.0f】</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -968,11 +964,11 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="str">
-        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の撤収時間は10.0f】</v>
+        <f>"【ゴミ収集車の消滅までの時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の消滅までの時間は2.0f】</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" t="str">
         <f>"【回収員のMAXHPは"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
@@ -991,11 +987,11 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="str">
-        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の回収範囲の半径は5.0f】</v>
+        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の撤収時間は10.0f】</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="str">
         <f>"【回収員の移動速度は"&amp;テーブル5568[[#This Row],[数値]]&amp;"】"</f>
@@ -1014,32 +1010,33 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="str">
+        <f>"【ゴミ収集車の回収範囲の半径は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の回収範囲の半径は5.0f】</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="str">
         <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル55[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の回収員の召喚人数は3】</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="25.2" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" thickTop="1">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
+    <row r="24" spans="1:8" ht="25.8" thickTop="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1048,13 +1045,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="str">
-        <f>"【ゴミ収集車の移動速度は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の移動速度は〇】</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>0</v>
+    <row r="25" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
       </c>
       <c r="D25" t="str">
         <f>"【住人の移動速度は"&amp;テーブル556812[[#This Row],[数値]]&amp;"】"</f>
@@ -1066,8 +1062,8 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="str">
-        <f>"【ゴミ収集車のお仕置きまでの時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車のお仕置きまでの時間は〇】</v>
+        <f>"【ゴミ収集車の移動速度は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の移動速度は〇】</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>0</v>
@@ -1082,8 +1078,8 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="str">
-        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
-        <v>【ゴミ収集車の撤収時間は〇】</v>
+        <f>"【ゴミ収集車のお仕置きまでの時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車のお仕置きまでの時間は〇】</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>0</v>
@@ -1098,10 +1094,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="str">
+        <f>"【ゴミ収集車の撤収時間は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
+        <v>【ゴミ収集車の撤収時間は〇】</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="str">
         <f>"【ゴミ収集車の回収員の召喚人数は"&amp;テーブル557[[#This Row],[数値]]&amp;"】"</f>
         <v>【ゴミ収集車の回収員の召喚人数は〇】</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
     </row>
